--- a/src/assets/files/Location_Multiple sample.xlsx
+++ b/src/assets/files/Location_Multiple sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Location Code</t>
   </si>
@@ -25,10 +25,16 @@
     <t>Primary Head</t>
   </si>
   <si>
+    <t>L007</t>
+  </si>
+  <si>
     <t>melur</t>
   </si>
   <si>
     <t>madurai</t>
+  </si>
+  <si>
+    <t>L005</t>
   </si>
   <si>
     <t>chennai</t>
@@ -39,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,11 +59,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,7 +165,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,96 +174,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,15 +187,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,19 +212,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,61 +356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,97 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,30 +403,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,11 +423,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +454,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,29 +503,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,127 +529,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,25 +1001,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/files/Location_Multiple sample.xlsx
+++ b/src/assets/files/Location_Multiple sample.xlsx
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,20 +63,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,7 +100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,14 +122,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -406,38 +424,44 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/assets/files/Location_Multiple sample.xlsx
+++ b/src/assets/files/Location_Multiple sample.xlsx
@@ -22,9 +22,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Primary Head</t>
-  </si>
-  <si>
     <t>L007</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>sample1@gmail.com</t>
+  </si>
+  <si>
+    <t>Email ID</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -432,29 +432,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/src/assets/files/Location_Multiple sample.xlsx
+++ b/src/assets/files/Location_Multiple sample.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary Head</t>
+    <t xml:space="preserve">Primary Location Head</t>
   </si>
   <si>
     <t xml:space="preserve">L007</t>
@@ -169,28 +169,32 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,7 +279,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,14 +289,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -303,7 +307,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -314,15 +318,15 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="5"/>
+      <c r="E11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/assets/files/Location_Multiple sample.xlsx
+++ b/src/assets/files/Location_Multiple sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,65 +21,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Location Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Location Head</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">melur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chennai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample2@gmail.com</t>
+    <t>Location Code</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>L007</t>
+  </si>
+  <si>
+    <t>melur</t>
+  </si>
+  <si>
+    <t>sample1@gmail.com</t>
+  </si>
+  <si>
+    <t>L005</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>sample2@gmail.com</t>
+  </si>
+  <si>
+    <t>Primary Head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -88,7 +68,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -96,11 +76,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -133,7 +112,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -141,73 +120,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -266,30 +215,318 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.53"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="27.6" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -297,48 +534,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5">
       <c r="B8" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5">
       <c r="E11" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="sample1@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="sample2@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/src/assets/files/Location_Multiple sample.xlsx
+++ b/src/assets/files/Location_Multiple sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Location Code</t>
   </si>
@@ -27,32 +27,29 @@
     <t>Location</t>
   </si>
   <si>
-    <t>L007</t>
-  </si>
-  <si>
-    <t>melur</t>
-  </si>
-  <si>
-    <t>sample1@gmail.com</t>
-  </si>
-  <si>
-    <t>L005</t>
-  </si>
-  <si>
-    <t>chennai</t>
-  </si>
-  <si>
-    <t>sample2@gmail.com</t>
-  </si>
-  <si>
     <t>Primary Head</t>
+  </si>
+  <si>
+    <t>l007</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
+  </si>
+  <si>
+    <t>b003</t>
+  </si>
+  <si>
+    <t>kesavan@gmail.com</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,14 +61,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -124,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -141,13 +130,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,7 +505,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -524,51 +513,49 @@
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/assets/files/Location_Multiple sample.xlsx
+++ b/src/assets/files/Location_Multiple sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Location Code</t>
   </si>
@@ -30,19 +30,10 @@
     <t>Primary Head</t>
   </si>
   <si>
-    <t>l007</t>
-  </si>
-  <si>
     <t>Branch Code</t>
   </si>
   <si>
-    <t>b003</t>
-  </si>
-  <si>
-    <t>kesavan@gmail.com</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
+    <t>sample@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -505,7 +496,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -518,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -531,17 +522,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
